--- a/data/hotels_by_city/Dallas/Dallas_shard_391.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_391.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Pam T</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Made a reservation for last night, went to check in and no one was working at the hotel. We waited and called the travel site we booked through (also unhelpful). There was another couple with a baby who had been waiting for over an hour and on the phone with corporate. We ended up leaving as it was late in the evening - and I still have no refund.More</t>
   </si>
   <si>
+    <t>partydown7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r574060215-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>I am a Spire Elite and I always enjoy my stay here at The Colony. I have been staying since October of 2017 and is always great! Staff is very friendly, food is good, breakfast is delicious and a lovely atmosphere with a comfortable bed!More</t>
   </si>
   <si>
+    <t>Jill V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r543456038-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>This is our favorite place to stay when we visit family in the area.   And the hotel never disappoints us.Beautiful pool area that you can swim or lay out in or sit at the tables and enjoy the Texas weather.The rooms are clean, quiet and very comfortable.  The staff is always friendly and helpful. During this stay JR and Juston were very accomodating with making sure our rooms close together and finding things in the area.`Nice breakfast in the morning and a small bar (though I am not sure of the hours.)They have a shuttle that runs until 10pm and takes you places in the area.Lots of restaurants, shopping, and even a Top Golf in the area.The only thing I wish is that they had adjoining rooms.More</t>
   </si>
   <si>
+    <t>judgechevere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r535799718-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -291,6 +303,9 @@
     <t>Tried this new hotel close to home and it is a beautiful place.  The rooms have everything you expect and the beds are very comfortable.  This might become our monthly place to relax and rejuvenate.  The outside seating area is complete with a water feature and a fireplace that is double sided.  You can sit inside and enjoy it or outside. More</t>
   </si>
   <si>
+    <t>deepsixman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r511158125-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -306,6 +321,9 @@
     <t>I stayed here for a funeral interview. It was a great value, and made the trip less unpleasant. I got a good breakfast, and I was really comfortable.  The decor was really nice too. I would stay here again if I am in the area or even with my wife. Everything worked, exceeded my expectations.</t>
   </si>
   <si>
+    <t>kathymiller919</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r504013820-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -333,6 +351,9 @@
     <t>Don't get me wrong I love Hard 8 BBQ but I don't want to smell it when I go to bed when I wake up and my entire stay. This hotel is new. Lobby area is very nice. Pool area beautiful. Rooms are clean and nice. But I should have gone to Hard 8 or somewhere else for breakfast. It appears that they have a buffet but you order off the menu for a fee. If you pay in advance you get it at a discount. We sat down at the same time as another couple they got their food right away. We didn't get ours for 45 mins. Then when we did my husbands omelet looked normal long and stuffed while mine was a square. It was cold to me but I like my food hot. My husband was ok with his but he likes his food at room temperature. I couldn't complain as my husband doesn't like when I do. So I just ate toast and potatoes. That was another thing the other table was over flowing with potatoes while we had about 10 smalls cubes. I will say the potatoes were good at least. Then I went to pour some coffee and 2 of the 3 pots were empty but the cook and staff were standing around talking they could have checked the coffee. They had to make more. Ain't no one got time to wait when...Don't get me wrong I love Hard 8 BBQ but I don't want to smell it when I go to bed when I wake up and my entire stay. This hotel is new. Lobby area is very nice. Pool area beautiful. Rooms are clean and nice. But I should have gone to Hard 8 or somewhere else for breakfast. It appears that they have a buffet but you order off the menu for a fee. If you pay in advance you get it at a discount. We sat down at the same time as another couple they got their food right away. We didn't get ours for 45 mins. Then when we did my husbands omelet looked normal long and stuffed while mine was a square. It was cold to me but I like my food hot. My husband was ok with his but he likes his food at room temperature. I couldn't complain as my husband doesn't like when I do. So I just ate toast and potatoes. That was another thing the other table was over flowing with potatoes while we had about 10 smalls cubes. I will say the potatoes were good at least. Then I went to pour some coffee and 2 of the 3 pots were empty but the cook and staff were standing around talking they could have checked the coffee. They had to make more. Ain't no one got time to wait when you are in a hurry. I know it's new but you never get a 2nd chance at a first impression. If you book here go someplace else for breakfast. There are plenty of other choices choose another hotel.More</t>
   </si>
   <si>
+    <t>Trevor C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r502468807-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Let me begin by acknowledging those that made my stay such a wonderful, great, fabulous, and special experience:  Matt, Ashley, J.R., and Steven Rico.  Wow!  Those folks who I just mentioned know customer service.  Matt is the guy you want to assist your during breakfast.  I call him Mr. "Efficient".  Each morning he provided me with the beverage that he knew I wanted as if he had been providing me with it for the last 10 years.  I don't know if I looked forward to breakfast more for the meal or for his service.  Mr. J.R. (not Ewing) was the front desk personnel that provided me the kind of assistance that I believe is reserved for celebrities.  Service with a smile?  That's J.R.  Ashley was another front desk personnel that provided 5-star customer service.  I needed some information about the area, and she allowed me to have as much of her time as I needed.  Then there's the Chief Engineer: Steven Rico.  Mr. Rico reminds me of Southwest Airline pilots.  What I mean by this is how humble and dedicated to the organization he is.  Did you know that even with all the responsibility that Southwest Airline pilots have in flying the plane, they still assist in tidying up the plane for the next group of passengers to come on board?  Well, they certainly do.  I would have thought that they would have felt that such a task is beneath...Let me begin by acknowledging those that made my stay such a wonderful, great, fabulous, and special experience:  Matt, Ashley, J.R., and Steven Rico.  Wow!  Those folks who I just mentioned know customer service.  Matt is the guy you want to assist your during breakfast.  I call him Mr. "Efficient".  Each morning he provided me with the beverage that he knew I wanted as if he had been providing me with it for the last 10 years.  I don't know if I looked forward to breakfast more for the meal or for his service.  Mr. J.R. (not Ewing) was the front desk personnel that provided me the kind of assistance that I believe is reserved for celebrities.  Service with a smile?  That's J.R.  Ashley was another front desk personnel that provided 5-star customer service.  I needed some information about the area, and she allowed me to have as much of her time as I needed.  Then there's the Chief Engineer: Steven Rico.  Mr. Rico reminds me of Southwest Airline pilots.  What I mean by this is how humble and dedicated to the organization he is.  Did you know that even with all the responsibility that Southwest Airline pilots have in flying the plane, they still assist in tidying up the plane for the next group of passengers to come on board?  Well, they certainly do.  I would have thought that they would have felt that such a task is beneath them, but they assist with removing debris from each seat, right along with the flight attendants.  What does this have to do with Mr. Steven Rico?  Well, he has the same mindset and work ethic as those SWA pilots.  Now keep in mind, that Mr. Steven Rico is the Chief Engineer for the hotel, yet, he among other things, he also drives the hotel van.  Yep!  And he does it with the most pleasing disposition.  He is certainly one of the most pleasant persons that I've ever met anywhere, on any level, performing any job duties.  I could write a chapter in a book about these four people.  They truly were special.  Now, about the hotel.  This property is a little over a year old.  It looks great.  My room was so inviting, I actually didn't want to come back out once I returned to the hotel.  My room was complete with a microwave and refrigerator.  The room had plenty of space.  The bathroom was great.  The bed was very comfortable.  There was a good selection in TV channels.  The Wi-Fi was great.  The workout facility was a little on the "light" side - not a wide variety of machines.  However, all I really wanted were the free weights, and they had all I needed.  The lobby was very nice.  There were 2 computers and 2 printers in the lobby.  The areas to sit outside were really cozy.  If the temperature and other weather conditions are good, you'll want to sit outside.  The outside areas of the hotel have a feel of being at home in the backyard - very, very nice.  The pool area is great.  The breakfast is good.  Overall, this as a great experience.  I been visiting the Frisco,TX area at least once a year for the past 14 years, and this was my first time at this hotel property.  Well, it may have been my first, but it won't be my last.  There are other hotels in the area for sure, but you won't regret staying here I can assure you.  Thanks Matt, Ashley, J.R, and Steven Rico for making my stay at your property a most memorable one.  Wow!More</t>
   </si>
   <si>
+    <t>Alaster83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r493856143-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -367,6 +391,9 @@
   </si>
   <si>
     <t>June 2017</t>
+  </si>
+  <si>
+    <t>Heather A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r486635053-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -889,43 +916,47 @@
       <c r="A2" t="n">
         <v>64712</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>156371</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -937,56 +968,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64712</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156372</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1002,56 +1037,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64712</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>59362</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1063,56 +1102,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64712</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>156373</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1124,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1143,37 +1186,37 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1185,47 +1228,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64712</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156374</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
@@ -1244,50 +1291,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64712</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>156375</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1303,56 +1354,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64712</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>23115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1372,50 +1427,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64712</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>156376</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1429,50 +1488,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64712</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>21709</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1486,7 +1549,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_391.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_391.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,258 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Pam T</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r605356785-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>56763</t>
+  </si>
+  <si>
+    <t>9452193</t>
+  </si>
+  <si>
+    <t>605356785</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>One of the nicest Holiday Inns that I have stayed at. The rooms  are well decorated with updated finishes. The entire hotel is extremely clean. The staff especially Sam and Cory are absolutely great! The bar area/ lobby are very nicely done. I would surely stay here again. The location is friendly to entertainment and restaurants. This hotel is a great value!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Tracy W, General Manager at Holiday Inn Plano - The Colony, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>One of the nicest Holiday Inns that I have stayed at. The rooms  are well decorated with updated finishes. The entire hotel is extremely clean. The staff especially Sam and Cory are absolutely great! The bar area/ lobby are very nicely done. I would surely stay here again. The location is friendly to entertainment and restaurants. This hotel is a great value!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r535799718-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>535799718</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Fitted sheets!</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel the weekend of October 20, 2017. It is a new facility and it was very clean. Excellent service and to my surprise, fitted sheets on the beds. One of my pet peeve‘s has always been the use of flat sheets on mattresses. They always seem to loosen up in the middle of the night and the guest ends up sleeping on a bare mattress. My room had all the necessary amenities including a single cup coffee maker, a microwave and a little refrigerator. The hotel was within walking distance of a great barbecue place and drinking establishment specializing in craft beers and rock ‘n’ roll. I cannot emphasize enough how clean the bathroom was and how well appointed the room was. I highly recommend this facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Tracy W, General Manager at Holiday Inn Plano - The Colony, responded to this reviewResponded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2018</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel the weekend of October 20, 2017. It is a new facility and it was very clean. Excellent service and to my surprise, fitted sheets on the beds. One of my pet peeve‘s has always been the use of flat sheets on mattresses. They always seem to loosen up in the middle of the night and the guest ends up sleeping on a bare mattress. My room had all the necessary amenities including a single cup coffee maker, a microwave and a little refrigerator. The hotel was within walking distance of a great barbecue place and drinking establishment specializing in craft beers and rock ‘n’ roll. I cannot emphasize enough how clean the bathroom was and how well appointed the room was. I highly recommend this facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r603332045-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>603332045</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Appreciated the Extra Help</t>
+  </si>
+  <si>
+    <t>This review is three months late, but I held onto the business card because I thought they did such an excellent job and wanted to make sure it noted. We really appreciated the extra help that we got with all the questions for the front desk. There were several times we needed directions, towels, etc. and we never felt like we were inconveniencing them, like I have at other hotels. I had never taken an Uber and the guy at the front desk was a huge help with that as well. He help me set up my account, and walked out with me to introduce me to the Uber driver. This was above and beyond what I would have expected for customer service. Thank you so much!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>This review is three months late, but I held onto the business card because I thought they did such an excellent job and wanted to make sure it noted. We really appreciated the extra help that we got with all the questions for the front desk. There were several times we needed directions, towels, etc. and we never felt like we were inconveniencing them, like I have at other hotels. I had never taken an Uber and the guy at the front desk was a huge help with that as well. He help me set up my account, and walked out with me to introduce me to the Uber driver. This was above and beyond what I would have expected for customer service. Thank you so much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r600843241-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>600843241</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Sam is the Man</t>
+  </si>
+  <si>
+    <t>I stayed here a couple of weeks ago and I have nothing negative to say!  Rooms were clean and the staff was friendly.  Shout out to Sam!  He was very nice and personable.  Did not rush us at check-in and made sure we had everything we needed to make our stay great.  He was also very knowledgeable about the area and recommended some places to go to.  Thank you Sam for being awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Tracy W, General Manager at Holiday Inn Plano - The Colony, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I stayed here a couple of weeks ago and I have nothing negative to say!  Rooms were clean and the staff was friendly.  Shout out to Sam!  He was very nice and personable.  Did not rush us at check-in and made sure we had everything we needed to make our stay great.  He was also very knowledgeable about the area and recommended some places to go to.  Thank you Sam for being awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r599729994-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>599729994</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Still had that new hotel smell</t>
+  </si>
+  <si>
+    <t>No complaints at all. Brand new or so it seemed.  Staff was great and friendly. Breakfast buffet was the only weak spot, room was awesome and bed was perfect. I would definitely go back. Right off the highway it was very easy to get to. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tracy W, General Manager at Holiday Inn Plano - The Colony, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>No complaints at all. Brand new or so it seemed.  Staff was great and friendly. Breakfast buffet was the only weak spot, room was awesome and bed was perfect. I would definitely go back. Right off the highway it was very easy to get to. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r596734720-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>596734720</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>2 words, Samuel Guereca</t>
+  </si>
+  <si>
+    <t>Samuel checked us in and was just amazing, he had everything any guest would like.His service was great and his vibe in general was amazing, I will definitely come back to the hotel just because of how well he treated me and my wife.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Tracy W, General Manager at Holiday Inn Plano - The Colony, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Samuel checked us in and was just amazing, he had everything any guest would like.His service was great and his vibe in general was amazing, I will definitely come back to the hotel just because of how well he treated me and my wife.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r583350615-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>583350615</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Amazing Service</t>
+  </si>
+  <si>
+    <t>Sam and JR at the front was so amazing They made this fun. We swam and had so much fun. We are thinking of having a family reunion here it was so nice. If your in the area choose this place!  They also have a full bar and great breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sam and JR at the front was so amazing They made this fun. We swam and had so much fun. We are thinking of having a family reunion here it was so nice. If your in the area choose this place!  They also have a full bar and great breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r582458433-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>582458433</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Grad trip!!</t>
+  </si>
+  <si>
+    <t>Customer service was excellent.  They were very accommodating with me having a late checkout.  Bar serves great drinks too and hotel has a beautiful patio area .Would definitely recommend for anyone and will book again if in this area !MoreShow less</t>
+  </si>
+  <si>
+    <t>Customer service was excellent.  They were very accommodating with me having a late checkout.  Bar serves great drinks too and hotel has a beautiful patio area .Would definitely recommend for anyone and will book again if in this area !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r581457004-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>581457004</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Loved This Hotel</t>
+  </si>
+  <si>
+    <t>This hotel impressed me with the amount of storage space in the room and bathroom with mini refrigerator, hair dryer, table to pull out for computer, and flat screen TV. The room and hotel were spotless.  Loved visiting with the staff, everyone was so friendly and helpful, particularly at the front desk and the breakfast staff.  I would stay at the hotel again and again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel impressed me with the amount of storage space in the room and bathroom with mini refrigerator, hair dryer, table to pull out for computer, and flat screen TV. The room and hotel were spotless.  Loved visiting with the staff, everyone was so friendly and helpful, particularly at the front desk and the breakfast staff.  I would stay at the hotel again and again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r579465154-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>579465154</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Stay at the Holiday Inn Plan - the colony</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn in the colony recently. The hotel was nice in every way. I was alone and really looked after by all the staff. Who were friendly and helpful.Especially Cory, Rosanne and Adelada the breakfast ladies.So happy with my stay, couldn't have been better. Room was clean and comfortable.Wouldn't dream of staying anywhere else, Best wishes to all staff - London LadyMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn in the colony recently. The hotel was nice in every way. I was alone and really looked after by all the staff. Who were friendly and helpful.Especially Cory, Rosanne and Adelada the breakfast ladies.So happy with my stay, couldn't have been better. Room was clean and comfortable.Wouldn't dream of staying anywhere else, Best wishes to all staff - London LadyMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r578083718-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
-    <t>56763</t>
-  </si>
-  <si>
-    <t>9452193</t>
-  </si>
-  <si>
     <t>578083718</t>
   </si>
   <si>
@@ -177,24 +414,15 @@
     <t>Made a reservation for last night, went to check in and no one was working at the hotel. We waited and called the travel site we booked through (also unhelpful). There was another couple with a baby who had been waiting for over an hour and on the phone with corporate. We ended up leaving as it was late in the evening - and I still have no refund.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>IHGService, Guest Relations Manager at Holiday Inn Plano - The Colony, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Plano - The Colony, responded to this reviewResponded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2018</t>
   </si>
   <si>
     <t>Made a reservation for last night, went to check in and no one was working at the hotel. We waited and called the travel site we booked through (also unhelpful). There was another couple with a baby who had been waiting for over an hour and on the phone with corporate. We ended up leaving as it was late in the evening - and I still have no refund.More</t>
   </si>
   <si>
-    <t>partydown7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r574060215-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -210,22 +438,34 @@
     <t>I am a Spire Elite and I always enjoy my stay here at The Colony. I have been staying since October of 2017 and is always great! Staff is very friendly, food is good, breakfast is delicious and a lovely atmosphere with a comfortable bed!MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Tracy W, General Manager at Holiday Inn Plano - The Colony, responded to this reviewResponded 2 days ago</t>
-  </si>
-  <si>
-    <t>Responded 2 days ago</t>
-  </si>
-  <si>
     <t>I am a Spire Elite and I always enjoy my stay here at The Colony. I have been staying since October of 2017 and is always great! Staff is very friendly, food is good, breakfast is delicious and a lovely atmosphere with a comfortable bed!More</t>
   </si>
   <si>
-    <t>Jill V</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r560658907-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>560658907</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was very nice in every way.  Very clean and bright, very helpful staff.  They even went out of their way to provide substitute items due to my food allergies at the restaurant and the coffee bar.  Price was right also.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Eloisa S, Manager at Holiday Inn Plano - The Colony, responded to this reviewResponded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was very nice in every way.  Very clean and bright, very helpful staff.  They even went out of their way to provide substitute items due to my food allergies at the restaurant and the coffee bar.  Price was right also.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r543456038-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -246,36 +486,9 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>This is our favorite place to stay when we visit family in the area.   And the hotel never disappoints us.Beautiful pool area that you can swim or lay out in or sit at the tables and enjoy the Texas weather.The rooms are clean, quiet and very comfortable.  The staff is always friendly and helpful. During this stay JR and Juston were very accomodating with making sure our rooms close together and finding things in the area.`Nice breakfast in the morning and a small bar (though I am not sure of the hours.)They have a shuttle that runs until 10pm and takes you places in the area.Lots of restaurants, shopping, and even a Top Golf in the area.The only thing I wish is that they had adjoining rooms.More</t>
   </si>
   <si>
-    <t>judgechevere</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r535799718-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
-  </si>
-  <si>
-    <t>535799718</t>
-  </si>
-  <si>
-    <t>10/24/2017</t>
-  </si>
-  <si>
-    <t>Fitted sheets!</t>
-  </si>
-  <si>
-    <t>I stayed in this hotel the weekend of October 20, 2017. It is a new facility and it was very clean. Excellent service and to my surprise, fitted sheets on the beds. One of my pet peeve‘s has always been the use of flat sheets on mattresses. They always seem to loosen up in the middle of the night and the guest ends up sleeping on a bare mattress. My room had all the necessary amenities including a single cup coffee maker, a microwave and a little refrigerator. The hotel was within walking distance of a great barbecue place and drinking establishment specializing in craft beers and rock ‘n’ roll. I cannot emphasize enough how clean the bathroom was and how well appointed the room was. I highly recommend this facility.MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>I stayed in this hotel the weekend of October 20, 2017. It is a new facility and it was very clean. Excellent service and to my surprise, fitted sheets on the beds. One of my pet peeve‘s has always been the use of flat sheets on mattresses. They always seem to loosen up in the middle of the night and the guest ends up sleeping on a bare mattress. My room had all the necessary amenities including a single cup coffee maker, a microwave and a little refrigerator. The hotel was within walking distance of a great barbecue place and drinking establishment specializing in craft beers and rock ‘n’ roll. I cannot emphasize enough how clean the bathroom was and how well appointed the room was. I highly recommend this facility.More</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r520487204-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -303,9 +516,6 @@
     <t>Tried this new hotel close to home and it is a beautiful place.  The rooms have everything you expect and the beds are very comfortable.  This might become our monthly place to relax and rejuvenate.  The outside seating area is complete with a water feature and a fireplace that is double sided.  You can sit inside and enjoy it or outside. More</t>
   </si>
   <si>
-    <t>deepsixman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r511158125-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -321,9 +531,6 @@
     <t>I stayed here for a funeral interview. It was a great value, and made the trip less unpleasant. I got a good breakfast, and I was really comfortable.  The decor was really nice too. I would stay here again if I am in the area or even with my wife. Everything worked, exceeded my expectations.</t>
   </si>
   <si>
-    <t>kathymiller919</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r504013820-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -351,9 +558,6 @@
     <t>Don't get me wrong I love Hard 8 BBQ but I don't want to smell it when I go to bed when I wake up and my entire stay. This hotel is new. Lobby area is very nice. Pool area beautiful. Rooms are clean and nice. But I should have gone to Hard 8 or somewhere else for breakfast. It appears that they have a buffet but you order off the menu for a fee. If you pay in advance you get it at a discount. We sat down at the same time as another couple they got their food right away. We didn't get ours for 45 mins. Then when we did my husbands omelet looked normal long and stuffed while mine was a square. It was cold to me but I like my food hot. My husband was ok with his but he likes his food at room temperature. I couldn't complain as my husband doesn't like when I do. So I just ate toast and potatoes. That was another thing the other table was over flowing with potatoes while we had about 10 smalls cubes. I will say the potatoes were good at least. Then I went to pour some coffee and 2 of the 3 pots were empty but the cook and staff were standing around talking they could have checked the coffee. They had to make more. Ain't no one got time to wait when...Don't get me wrong I love Hard 8 BBQ but I don't want to smell it when I go to bed when I wake up and my entire stay. This hotel is new. Lobby area is very nice. Pool area beautiful. Rooms are clean and nice. But I should have gone to Hard 8 or somewhere else for breakfast. It appears that they have a buffet but you order off the menu for a fee. If you pay in advance you get it at a discount. We sat down at the same time as another couple they got their food right away. We didn't get ours for 45 mins. Then when we did my husbands omelet looked normal long and stuffed while mine was a square. It was cold to me but I like my food hot. My husband was ok with his but he likes his food at room temperature. I couldn't complain as my husband doesn't like when I do. So I just ate toast and potatoes. That was another thing the other table was over flowing with potatoes while we had about 10 smalls cubes. I will say the potatoes were good at least. Then I went to pour some coffee and 2 of the 3 pots were empty but the cook and staff were standing around talking they could have checked the coffee. They had to make more. Ain't no one got time to wait when you are in a hurry. I know it's new but you never get a 2nd chance at a first impression. If you book here go someplace else for breakfast. There are plenty of other choices choose another hotel.More</t>
   </si>
   <si>
-    <t>Trevor C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r502468807-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -372,9 +576,6 @@
     <t>Let me begin by acknowledging those that made my stay such a wonderful, great, fabulous, and special experience:  Matt, Ashley, J.R., and Steven Rico.  Wow!  Those folks who I just mentioned know customer service.  Matt is the guy you want to assist your during breakfast.  I call him Mr. "Efficient".  Each morning he provided me with the beverage that he knew I wanted as if he had been providing me with it for the last 10 years.  I don't know if I looked forward to breakfast more for the meal or for his service.  Mr. J.R. (not Ewing) was the front desk personnel that provided me the kind of assistance that I believe is reserved for celebrities.  Service with a smile?  That's J.R.  Ashley was another front desk personnel that provided 5-star customer service.  I needed some information about the area, and she allowed me to have as much of her time as I needed.  Then there's the Chief Engineer: Steven Rico.  Mr. Rico reminds me of Southwest Airline pilots.  What I mean by this is how humble and dedicated to the organization he is.  Did you know that even with all the responsibility that Southwest Airline pilots have in flying the plane, they still assist in tidying up the plane for the next group of passengers to come on board?  Well, they certainly do.  I would have thought that they would have felt that such a task is beneath...Let me begin by acknowledging those that made my stay such a wonderful, great, fabulous, and special experience:  Matt, Ashley, J.R., and Steven Rico.  Wow!  Those folks who I just mentioned know customer service.  Matt is the guy you want to assist your during breakfast.  I call him Mr. "Efficient".  Each morning he provided me with the beverage that he knew I wanted as if he had been providing me with it for the last 10 years.  I don't know if I looked forward to breakfast more for the meal or for his service.  Mr. J.R. (not Ewing) was the front desk personnel that provided me the kind of assistance that I believe is reserved for celebrities.  Service with a smile?  That's J.R.  Ashley was another front desk personnel that provided 5-star customer service.  I needed some information about the area, and she allowed me to have as much of her time as I needed.  Then there's the Chief Engineer: Steven Rico.  Mr. Rico reminds me of Southwest Airline pilots.  What I mean by this is how humble and dedicated to the organization he is.  Did you know that even with all the responsibility that Southwest Airline pilots have in flying the plane, they still assist in tidying up the plane for the next group of passengers to come on board?  Well, they certainly do.  I would have thought that they would have felt that such a task is beneath them, but they assist with removing debris from each seat, right along with the flight attendants.  What does this have to do with Mr. Steven Rico?  Well, he has the same mindset and work ethic as those SWA pilots.  Now keep in mind, that Mr. Steven Rico is the Chief Engineer for the hotel, yet, he among other things, he also drives the hotel van.  Yep!  And he does it with the most pleasing disposition.  He is certainly one of the most pleasant persons that I've ever met anywhere, on any level, performing any job duties.  I could write a chapter in a book about these four people.  They truly were special.  Now, about the hotel.  This property is a little over a year old.  It looks great.  My room was so inviting, I actually didn't want to come back out once I returned to the hotel.  My room was complete with a microwave and refrigerator.  The room had plenty of space.  The bathroom was great.  The bed was very comfortable.  There was a good selection in TV channels.  The Wi-Fi was great.  The workout facility was a little on the "light" side - not a wide variety of machines.  However, all I really wanted were the free weights, and they had all I needed.  The lobby was very nice.  There were 2 computers and 2 printers in the lobby.  The areas to sit outside were really cozy.  If the temperature and other weather conditions are good, you'll want to sit outside.  The outside areas of the hotel have a feel of being at home in the backyard - very, very nice.  The pool area is great.  The breakfast is good.  Overall, this as a great experience.  I been visiting the Frisco,TX area at least once a year for the past 14 years, and this was my first time at this hotel property.  Well, it may have been my first, but it won't be my last.  There are other hotels in the area for sure, but you won't regret staying here I can assure you.  Thanks Matt, Ashley, J.R, and Steven Rico for making my stay at your property a most memorable one.  Wow!More</t>
   </si>
   <si>
-    <t>Alaster83</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r493856143-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -393,9 +594,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>Heather A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r486635053-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -412,6 +610,276 @@
   </si>
   <si>
     <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r473817926-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>473817926</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>We stayed at this Holiday Inn while visiting friends in the area and had a great stay!  The property is probably the nicest Holiday Inn I've ever seen. The rooms were spacious and very comfortable. The staff was very friendly and professional. We were most impressed with the restaurant staff and the food. I've been to similar hotels were the food/service was subpar at best. This was happily not the case at this property.  I found the restaurant staff to be extremely friendly and helpful. The food was well priced and very tasty. The menu had a perfect variety of options including some very healthy choices!  For breakfast, I had the egg white and veggie wrap with breakfast potatoes. It was delicious!  My husband had the blueberry pancakes with a side of eggs. Everything was very fresh and cooked perfectly. The blueberry pancakes didn't come out with everything else. So, the chef himself delivered them to our table with his apologies (which wasn't even necessary since they came out about 30 sec. after everything else).  The next day we took advantage of the breakfast buffet which was also very good with plenty of options. One of my pet peeves is undercooked bacon which seems to be fairly common on buffet lines. That was not the case here. Again, everything was cooked perfectly. All in all, I was extremely impressed and will be staying here anytime we are in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this Holiday Inn while visiting friends in the area and had a great stay!  The property is probably the nicest Holiday Inn I've ever seen. The rooms were spacious and very comfortable. The staff was very friendly and professional. We were most impressed with the restaurant staff and the food. I've been to similar hotels were the food/service was subpar at best. This was happily not the case at this property.  I found the restaurant staff to be extremely friendly and helpful. The food was well priced and very tasty. The menu had a perfect variety of options including some very healthy choices!  For breakfast, I had the egg white and veggie wrap with breakfast potatoes. It was delicious!  My husband had the blueberry pancakes with a side of eggs. Everything was very fresh and cooked perfectly. The blueberry pancakes didn't come out with everything else. So, the chef himself delivered them to our table with his apologies (which wasn't even necessary since they came out about 30 sec. after everything else).  The next day we took advantage of the breakfast buffet which was also very good with plenty of options. One of my pet peeves is undercooked bacon which seems to be fairly common on buffet lines. That was not the case here. Again, everything was cooked perfectly. All in all, I was extremely impressed and will be staying here anytime we are in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r472363852-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>472363852</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel that has some issues to resolve.</t>
+  </si>
+  <si>
+    <t>This hotel is relatively new, so we found it to be clean and well maintained. The furniture and amenities were in good shape. 
+We arrived on a Saturday afternoon and check-in was quick and easy. The employee who checked us in was friendly and professional and gave me two vouchers for a "Cooked to Order Breakfast", because there is no free breakfast served.  (Unfortunately, what we got the next morning was a sub-standard breakfast buffet)
+Our room was on the 4th floor. It had 2 queen beds, a (very) small refrigerator, a microwave, a small Keureg and a TV.  The TV was mounted up fairly high on the wall.  I stay in a lot of hotels, and my first thought when I walked in the room was that it felt kind of small for the price. 
+The way the Air Conditioner worked was a real problem. We dropped off luggage, adjusted the air conditioner because it was warm and slightly muggy in the room and left to go run some errands and eat dinner.  When we returned, it was still muggy in the room and the AC was not running... until we walked all the way into the room, when the motion detector on the thermostat registered our movement and turned the AC on. As I thought about it, I understood that they were trying to save money. Unfortunately, while we were sleeping it turned off the AC again, and...This hotel is relatively new, so we found it to be clean and well maintained. The furniture and amenities were in good shape. We arrived on a Saturday afternoon and check-in was quick and easy. The employee who checked us in was friendly and professional and gave me two vouchers for a "Cooked to Order Breakfast", because there is no free breakfast served.  (Unfortunately, what we got the next morning was a sub-standard breakfast buffet)Our room was on the 4th floor. It had 2 queen beds, a (very) small refrigerator, a microwave, a small Keureg and a TV.  The TV was mounted up fairly high on the wall.  I stay in a lot of hotels, and my first thought when I walked in the room was that it felt kind of small for the price. The way the Air Conditioner worked was a real problem. We dropped off luggage, adjusted the air conditioner because it was warm and slightly muggy in the room and left to go run some errands and eat dinner.  When we returned, it was still muggy in the room and the AC was not running... until we walked all the way into the room, when the motion detector on the thermostat registered our movement and turned the AC on. As I thought about it, I understood that they were trying to save money. Unfortunately, while we were sleeping it turned off the AC again, and it was 5 degrees above my setting when I woke up, warm and uncomfortable.  (I should not have to sleep walk to be able to stay cool at night).The beds, like the hotel, were relatively new.  I was fairly comfortable, but my wife said she thought they were hard.  I found that to be unusual because she tends to like very firm mattresses. One complement I would give is that our room was quiet. I didn't hear much noise from the hallway, other rooms, or traffic outside. This property does not have a free breakfast, like most do. Breakfast the next morning was not worth paying for, it was not much better than the free breakfast received at other properties.  The kitchen staff was very friendly, but the food was not great.  The eggs were really runny and the bacon was way overdone (think charred).MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>This hotel is relatively new, so we found it to be clean and well maintained. The furniture and amenities were in good shape. 
+We arrived on a Saturday afternoon and check-in was quick and easy. The employee who checked us in was friendly and professional and gave me two vouchers for a "Cooked to Order Breakfast", because there is no free breakfast served.  (Unfortunately, what we got the next morning was a sub-standard breakfast buffet)
+Our room was on the 4th floor. It had 2 queen beds, a (very) small refrigerator, a microwave, a small Keureg and a TV.  The TV was mounted up fairly high on the wall.  I stay in a lot of hotels, and my first thought when I walked in the room was that it felt kind of small for the price. 
+The way the Air Conditioner worked was a real problem. We dropped off luggage, adjusted the air conditioner because it was warm and slightly muggy in the room and left to go run some errands and eat dinner.  When we returned, it was still muggy in the room and the AC was not running... until we walked all the way into the room, when the motion detector on the thermostat registered our movement and turned the AC on. As I thought about it, I understood that they were trying to save money. Unfortunately, while we were sleeping it turned off the AC again, and...This hotel is relatively new, so we found it to be clean and well maintained. The furniture and amenities were in good shape. We arrived on a Saturday afternoon and check-in was quick and easy. The employee who checked us in was friendly and professional and gave me two vouchers for a "Cooked to Order Breakfast", because there is no free breakfast served.  (Unfortunately, what we got the next morning was a sub-standard breakfast buffet)Our room was on the 4th floor. It had 2 queen beds, a (very) small refrigerator, a microwave, a small Keureg and a TV.  The TV was mounted up fairly high on the wall.  I stay in a lot of hotels, and my first thought when I walked in the room was that it felt kind of small for the price. The way the Air Conditioner worked was a real problem. We dropped off luggage, adjusted the air conditioner because it was warm and slightly muggy in the room and left to go run some errands and eat dinner.  When we returned, it was still muggy in the room and the AC was not running... until we walked all the way into the room, when the motion detector on the thermostat registered our movement and turned the AC on. As I thought about it, I understood that they were trying to save money. Unfortunately, while we were sleeping it turned off the AC again, and it was 5 degrees above my setting when I woke up, warm and uncomfortable.  (I should not have to sleep walk to be able to stay cool at night).The beds, like the hotel, were relatively new.  I was fairly comfortable, but my wife said she thought they were hard.  I found that to be unusual because she tends to like very firm mattresses. One complement I would give is that our room was quiet. I didn't hear much noise from the hallway, other rooms, or traffic outside. This property does not have a free breakfast, like most do. Breakfast the next morning was not worth paying for, it was not much better than the free breakfast received at other properties.  The kitchen staff was very friendly, but the food was not great.  The eggs were really runny and the bacon was way overdone (think charred).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r468603023-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>468603023</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Family Get Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent hotel, new and clean. Close to Top Golf which was grand. No complaints at all. Bar, restaurant, and nice facilities. Quick access into Dallas and other attractions. I would stay again, and recommend to others. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r465341207-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>465341207</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>The nicest Holiday Inn I've ever stayed at - Wow!</t>
+  </si>
+  <si>
+    <t>I travel a LOT, but this hotel was by far the nicest Holiday Inn I've ever stayed at. The hotel is brand new, which undoubtedly helps the situation. My comments:- Everything worked (plumbing, TV, internet, ammenities, etc.)- Rooms were immaculate every day- All towels were properly stocked every day- Front desk customer service was extremely helpful and friendly- Hotel breakfast was made to order, and very nice I might add- My room was on the first floor next to the ice machine (usually a bad thing), but I must say my room was completely quiet.- No complaints whatsoever!Clearly, the folks running this hotel care deeply about their image, and are doing everything possible to do their best for their guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel a LOT, but this hotel was by far the nicest Holiday Inn I've ever stayed at. The hotel is brand new, which undoubtedly helps the situation. My comments:- Everything worked (plumbing, TV, internet, ammenities, etc.)- Rooms were immaculate every day- All towels were properly stocked every day- Front desk customer service was extremely helpful and friendly- Hotel breakfast was made to order, and very nice I might add- My room was on the first floor next to the ice machine (usually a bad thing), but I must say my room was completely quiet.- No complaints whatsoever!Clearly, the folks running this hotel care deeply about their image, and are doing everything possible to do their best for their guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r465094820-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>465094820</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>New Hotel Very Comfortable</t>
+  </si>
+  <si>
+    <t>As a resident of The Colony the name of the hotel sticks in my craw. This Hotel is located IN THE COLONY. Why it is named Plano and then The Colony is beyond me. The Hotel and Staff were excellent as always. The breakfast which was part of our room was slim to say the least. The breakfast menu is very small and not to many choices. The meal was pricey for breakfast although the service was great as usual. Since the Hotel is new, I imagine that there are growing pains. All and all we had a good stay the room was comfortable and well apportioned.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r458955122-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>458955122</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn at The Colony Texas</t>
+  </si>
+  <si>
+    <t>Beautiful, clean hotel with friendly efficient staff. Nice bar, restaurant and beautiful outdoor patio which were great places to meet with friends and enjoy food and drinks. Close to NFM, restaurants &amp; shops. Would highly recommend staying at this Holiday Inn! Kay Johnson</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r453432471-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>453432471</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>All good except for breakfast</t>
+  </si>
+  <si>
+    <t>Very nice hotel - room was nice as was the fitness center.  Only disappointment was breakfast.  Once I arrived, the lady was very unfriendly.  Also, both days she forgot to bring out the pancake mix.  On the first day, i reminded her and she brought it out.  The 2nd day, I did not even bother.  The rest of the staff was very friendly.  The AC unit was a little loud, but not sure if that can be controlled.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r450277012-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>450277012</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>Went above and beyond!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel! Everyone so nice and accommodating. Did everything they could to make our stay great. Rooms were clean and comfortable. Highly recommend and will go back !! The staff was courteous and professional. Helpful and allowed use of the hotel van without any question. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r450276789-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>450276789</t>
+  </si>
+  <si>
+    <t>Best service ever!</t>
+  </si>
+  <si>
+    <t>We stayed with a high school soccer team with 28 girls, and the staff could not have been nicer or more accommodating. They allowed us to use a meeting space for the girls' dinners and meetings and the chef agreed to prepare a last minute, very nice meal for them. Every staff member was kind and went out of his or her way to make sure our every need was met. When the team bus broke down, they sent the hotel shuttle to make sure the girls got to their game on time and back to the hotel. The management was incredible. We can't thank them enough and would highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed with a high school soccer team with 28 girls, and the staff could not have been nicer or more accommodating. They allowed us to use a meeting space for the girls' dinners and meetings and the chef agreed to prepare a last minute, very nice meal for them. Every staff member was kind and went out of his or her way to make sure our every need was met. When the team bus broke down, they sent the hotel shuttle to make sure the girls got to their game on time and back to the hotel. The management was incredible. We can't thank them enough and would highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r450025934-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>450025934</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Helpful staff &amp; nice clean hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Came up for a soccer tournament and found the check in easy and friendly. Hotel was nice, clean, quite. The team bus broke down and hotel Mgmt and staff stepped like rock stars and shuttled the team to and from the venue. And hotel also prepared a nice dinner for the girls upon after the game. Great experience and would stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r439585629-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>439585629</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Great hotel poor breakfast</t>
+  </si>
+  <si>
+    <t>We stayed in this new hotel and were very impressed with the room plus the bar and reception area. All very tastefully decorated and designed. The hotel was in a perfect location for us visiting family. Room was spacious, warm and clean as was the bathroom. The big negative was the breakfast and the server who was very disinterested. So much so she handed us our plates and cutlery as we walked in for us then to carry them and see ourselves to a table. She couldn't be bothered walking to us with our plates and cutlery. She also forgot drinks. Worst of all my husband took some Greek yogurt and luckily looked at the eat by date. It was 2 weeks out of date as were all of these yogurts on display. So glad he looked at the date before eating. The server couldn't understand how they got out there!Would stay again but wouldn't pay the extra for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We stayed in this new hotel and were very impressed with the room plus the bar and reception area. All very tastefully decorated and designed. The hotel was in a perfect location for us visiting family. Room was spacious, warm and clean as was the bathroom. The big negative was the breakfast and the server who was very disinterested. So much so she handed us our plates and cutlery as we walked in for us then to carry them and see ourselves to a table. She couldn't be bothered walking to us with our plates and cutlery. She also forgot drinks. Worst of all my husband took some Greek yogurt and luckily looked at the eat by date. It was 2 weeks out of date as were all of these yogurts on display. So glad he looked at the date before eating. The server couldn't understand how they got out there!Would stay again but wouldn't pay the extra for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r426236411-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>426236411</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Horrible Management, Beautiful new hotel</t>
+  </si>
+  <si>
+    <t>This is a beautiful brand new hotel.  Beautifully decorated with comfortable rooms and beds.  That's the end of anything good I have to say about this hotel!  We are IHG Spire Elite members, so we've stayed in LOTS of IHG-Holiday Inn hotels in the USA and Europe.  Upon check in, the receptionist made absolutely no mention of our being members of the IHG family...no offer of points etc.  Okay, sometimes that happens.  We had a fairly good night, then at 8AM, the hotel's fire alarms all went off!  Out in the cold morning air we went in our PJ's along with all the other guests.  No PA announcements about what was going on.  We decided to sit in our car with our 3 year old daughter while the fire truck arrived.  No help or communication from the staff at all.  After about 30 minutes, we were able to go back inside (with fully outfitted firemen standing in groups outside the front entrance)...again with no instructions...nothing as far as information from the hotel staff.  About an hour later we came downstairs to eat breakfast in their "restaurant".  No one was there to seat us.  Basically their "restaurant" is part of the open lobby/bar area. Poorly defined area...didn't look like a restaurant to me....only had a hand full of tables.  Finally, with apology, a guy with a chefs coat on seated us. He first led us to one of the large pub...This is a beautiful brand new hotel.  Beautifully decorated with comfortable rooms and beds.  That's the end of anything good I have to say about this hotel!  We are IHG Spire Elite members, so we've stayed in LOTS of IHG-Holiday Inn hotels in the USA and Europe.  Upon check in, the receptionist made absolutely no mention of our being members of the IHG family...no offer of points etc.  Okay, sometimes that happens.  We had a fairly good night, then at 8AM, the hotel's fire alarms all went off!  Out in the cold morning air we went in our PJ's along with all the other guests.  No PA announcements about what was going on.  We decided to sit in our car with our 3 year old daughter while the fire truck arrived.  No help or communication from the staff at all.  After about 30 minutes, we were able to go back inside (with fully outfitted firemen standing in groups outside the front entrance)...again with no instructions...nothing as far as information from the hotel staff.  About an hour later we came downstairs to eat breakfast in their "restaurant".  No one was there to seat us.  Basically their "restaurant" is part of the open lobby/bar area. Poorly defined area...didn't look like a restaurant to me....only had a hand full of tables.  Finally, with apology, a guy with a chefs coat on seated us. He first led us to one of the large pub (tall type) tables, which will not work with a 3 year old (who could fall a long way to the floor!), then he sees that there is a booth available.  He manages to remember to hand my husband and I menus, and give a child's menu placemat to our daughter, but he never gives her the crayon package he has in his hand...before he suddenly disappears.  She never got her crayons.  There were no napkins/silverware on the table (or anyone else's for that matter)/  He comes back to take our drink order, then he slowly returns with what we ordered except that when he brings me my hot tea, it is a tray with a small one cup tea pot with 3/4 cup of hot water and 3 tea bags.  Not enough water for one bag of tea, much less 3! No mug! no milk...and again...no spoons etc. He didn't seem to have enough of an IQ to KNOW what basic items the diners needed on the table and he had no memory skills whatsoever!  We noticed the table with a large extended family with A LOT of children, were helping themselves to the wrapped silverware/napkins over at the bar area.  We proceeded to help ourselves to that and I finally got a mug after asking for it.  He finally takes our order.  Then we waited for over an hour (and the place is NOT full by any means)....and only saw one other guy serving food to the table with all the children.  Occasionally one of the two would stop by and say that because they had just gotten a large order all at once, that they were running behind.  My husband got up and asked a lady working at the hotel reception desk if they were understaffed today, and she said, "Oh, I guess so." No apology, no explanation.  Then finally we were told by the "waiter" or whatever he was, that they'd bring out our daughter's order first.  Then they didn't....they came out with more food for the large group (it was a group of 6 adults and 8 kids)....and we overheard the guy say they just ran out of bacon.  Since bacon is the only item my daughter really will eat, there wasn't a point in waiting any longer on our order.  We got up and left, went back to our room and checked out.  3 ladies were manning the front desk (and no one was checking in or out).  I thought they should have been helping be waitresses in the "restaurant" since they certainly weren't busy at the front desk.  They all had their heads down low, concentrating on their computer screens.  No one bothered to acknowledge we were checking out.  My over all opinion was that these people had ZERO experience running a hotel and ZERO training.  It was terribly under staffed and they did not handle an emergency situation well at all!  There is no excuse for this at a brand new hotel in the Dallas area!  As for running out of bacon....this is DALLAS...there are groceries stores EVERYWHERE!  Was there really a fire?  WHO KNOWS????  Scary place....I don't advise anyone stay here.  Manager listed as on duty was Mr. Gonzalez.  We ended up having breakfast at a nearby Sonic.  Terrible way to start a vacation!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>This is a beautiful brand new hotel.  Beautifully decorated with comfortable rooms and beds.  That's the end of anything good I have to say about this hotel!  We are IHG Spire Elite members, so we've stayed in LOTS of IHG-Holiday Inn hotels in the USA and Europe.  Upon check in, the receptionist made absolutely no mention of our being members of the IHG family...no offer of points etc.  Okay, sometimes that happens.  We had a fairly good night, then at 8AM, the hotel's fire alarms all went off!  Out in the cold morning air we went in our PJ's along with all the other guests.  No PA announcements about what was going on.  We decided to sit in our car with our 3 year old daughter while the fire truck arrived.  No help or communication from the staff at all.  After about 30 minutes, we were able to go back inside (with fully outfitted firemen standing in groups outside the front entrance)...again with no instructions...nothing as far as information from the hotel staff.  About an hour later we came downstairs to eat breakfast in their "restaurant".  No one was there to seat us.  Basically their "restaurant" is part of the open lobby/bar area. Poorly defined area...didn't look like a restaurant to me....only had a hand full of tables.  Finally, with apology, a guy with a chefs coat on seated us. He first led us to one of the large pub...This is a beautiful brand new hotel.  Beautifully decorated with comfortable rooms and beds.  That's the end of anything good I have to say about this hotel!  We are IHG Spire Elite members, so we've stayed in LOTS of IHG-Holiday Inn hotels in the USA and Europe.  Upon check in, the receptionist made absolutely no mention of our being members of the IHG family...no offer of points etc.  Okay, sometimes that happens.  We had a fairly good night, then at 8AM, the hotel's fire alarms all went off!  Out in the cold morning air we went in our PJ's along with all the other guests.  No PA announcements about what was going on.  We decided to sit in our car with our 3 year old daughter while the fire truck arrived.  No help or communication from the staff at all.  After about 30 minutes, we were able to go back inside (with fully outfitted firemen standing in groups outside the front entrance)...again with no instructions...nothing as far as information from the hotel staff.  About an hour later we came downstairs to eat breakfast in their "restaurant".  No one was there to seat us.  Basically their "restaurant" is part of the open lobby/bar area. Poorly defined area...didn't look like a restaurant to me....only had a hand full of tables.  Finally, with apology, a guy with a chefs coat on seated us. He first led us to one of the large pub (tall type) tables, which will not work with a 3 year old (who could fall a long way to the floor!), then he sees that there is a booth available.  He manages to remember to hand my husband and I menus, and give a child's menu placemat to our daughter, but he never gives her the crayon package he has in his hand...before he suddenly disappears.  She never got her crayons.  There were no napkins/silverware on the table (or anyone else's for that matter)/  He comes back to take our drink order, then he slowly returns with what we ordered except that when he brings me my hot tea, it is a tray with a small one cup tea pot with 3/4 cup of hot water and 3 tea bags.  Not enough water for one bag of tea, much less 3! No mug! no milk...and again...no spoons etc. He didn't seem to have enough of an IQ to KNOW what basic items the diners needed on the table and he had no memory skills whatsoever!  We noticed the table with a large extended family with A LOT of children, were helping themselves to the wrapped silverware/napkins over at the bar area.  We proceeded to help ourselves to that and I finally got a mug after asking for it.  He finally takes our order.  Then we waited for over an hour (and the place is NOT full by any means)....and only saw one other guy serving food to the table with all the children.  Occasionally one of the two would stop by and say that because they had just gotten a large order all at once, that they were running behind.  My husband got up and asked a lady working at the hotel reception desk if they were understaffed today, and she said, "Oh, I guess so." No apology, no explanation.  Then finally we were told by the "waiter" or whatever he was, that they'd bring out our daughter's order first.  Then they didn't....they came out with more food for the large group (it was a group of 6 adults and 8 kids)....and we overheard the guy say they just ran out of bacon.  Since bacon is the only item my daughter really will eat, there wasn't a point in waiting any longer on our order.  We got up and left, went back to our room and checked out.  3 ladies were manning the front desk (and no one was checking in or out).  I thought they should have been helping be waitresses in the "restaurant" since they certainly weren't busy at the front desk.  They all had their heads down low, concentrating on their computer screens.  No one bothered to acknowledge we were checking out.  My over all opinion was that these people had ZERO experience running a hotel and ZERO training.  It was terribly under staffed and they did not handle an emergency situation well at all!  There is no excuse for this at a brand new hotel in the Dallas area!  As for running out of bacon....this is DALLAS...there are groceries stores EVERYWHERE!  Was there really a fire?  WHO KNOWS????  Scary place....I don't advise anyone stay here.  Manager listed as on duty was Mr. Gonzalez.  We ended up having breakfast at a nearby Sonic.  Terrible way to start a vacation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r398980610-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>398980610</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>New, clean hotel, but unacceptable climate control</t>
+  </si>
+  <si>
+    <t>We actually just cancelled our stay after checking in to the room.  The climate controls in the rooms are on motion sensors.  This means that in July in Texas our room was in the mid 80s when we entered it and than anytime you leave the room the AC turns off and the temperature will be high when you return.  The room was fine and the staff was nice, but this isn't a problem that it's really in their power to fix.  We'd stay in the winter, but not the summer.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r396282936-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>396282936</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Restaurant/Bar is awesome!</t>
+  </si>
+  <si>
+    <t>Stopped by and had lunch and drinks while seeing some family.  Food was incredible- we know there are restaurants everywhere in the area but the options on the menu was perfect for my family while the drinks were just as incredible - props to chef, kitchen and bar staff at this brand new Holiday Inn.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d9452193-r386801180-Holiday_Inn_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>386801180</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Clean and New!</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights with the family. This place appears to have just opened recently. It was very clean and fresh. Vibrant colors and nice decor. Room was well designed and very comfortable. Bed could have been a little softer for my taste. Breakfast was an additional charge of $9.99. The second morning we found a nearby Chick-fil-A as an alternative. Overall nice stay at a reasonable price.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
   </si>
 </sst>
 </file>
@@ -916,47 +1384,43 @@
       <c r="A2" t="n">
         <v>64712</v>
       </c>
-      <c r="B2" t="n">
-        <v>156371</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -968,129 +1432,117 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64712</v>
       </c>
-      <c r="B3" t="n">
-        <v>156372</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64712</v>
       </c>
-      <c r="B4" t="n">
-        <v>59362</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1102,78 +1554,78 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64712</v>
       </c>
-      <c r="B5" t="n">
-        <v>156373</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1186,37 +1638,37 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="K6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" t="s">
-        <v>90</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1228,68 +1680,76 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64712</v>
       </c>
-      <c r="B7" t="n">
-        <v>156374</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
         <v>97</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
       <c r="Y7" t="s">
         <v>100</v>
       </c>
@@ -1298,258 +1758,1755 @@
       <c r="A8" t="n">
         <v>64712</v>
       </c>
-      <c r="B8" t="n">
-        <v>156375</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s">
-        <v>106</v>
-      </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64712</v>
       </c>
-      <c r="B9" t="n">
-        <v>23115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" t="s">
+        <v>65</v>
+      </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64712</v>
       </c>
-      <c r="B10" t="n">
-        <v>156376</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" t="s">
+        <v>65</v>
+      </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64712</v>
       </c>
-      <c r="B11" t="n">
-        <v>21709</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X11" t="s">
+        <v>65</v>
+      </c>
       <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
         <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>64</v>
+      </c>
+      <c r="X15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J22" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s">
+        <v>216</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" t="s">
+        <v>227</v>
+      </c>
+      <c r="L26" t="s">
+        <v>228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>217</v>
+      </c>
+      <c r="O26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>239</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>263</v>
+      </c>
+      <c r="J33" t="s">
+        <v>264</v>
+      </c>
+      <c r="K33" t="s">
+        <v>265</v>
+      </c>
+      <c r="L33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>267</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" t="s">
+        <v>273</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>274</v>
+      </c>
+      <c r="O34" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>275</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>276</v>
+      </c>
+      <c r="J35" t="s">
+        <v>277</v>
+      </c>
+      <c r="K35" t="s">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s">
+        <v>279</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>274</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64712</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>281</v>
+      </c>
+      <c r="J36" t="s">
+        <v>282</v>
+      </c>
+      <c r="K36" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s">
+        <v>284</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
